--- a/weather_ui/天气颜色对应表.xlsx
+++ b/weather_ui/天气颜色对应表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>天气</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>#4223ED</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1419,6 +1427,53 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164557</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1377463" y="4887058"/>
+          <a:ext cx="164556" cy="161192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1711,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2036,6 +2091,14 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
